--- a/Rpackages.xlsx
+++ b/Rpackages.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
   </bookViews>
   <sheets>
     <sheet name="tab" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Agent-Based Model for Taenia solium Transmission and Control</t>
   </si>
   <si>
-    <t>http://cran.r-project.org/package=cystiSim</t>
-  </si>
-  <si>
     <t>Devleesschauwer, Brecht; Torgerson, Paul R; Charlier, Johannes; Levecke, Bruno; Praet, Nicolas; Roelandt, Sophie; Smit, GSA; Dorny, Pierre; Berkvens, Dirk; Speybroeck, Niko</t>
   </si>
   <si>
@@ -76,24 +73,12 @@
     <t>0.4.0</t>
   </si>
   <si>
-    <t>http://cran.r-project.org/package=prevalence</t>
-  </si>
-  <si>
     <t>Devleesschauwer, Brecht; McDonald, Scott; Haagsma, Juanita; Praet, Nicolas; Havelaar, Arie; Speybroeck, Niko</t>
   </si>
   <si>
     <t>DALY</t>
   </si>
   <si>
-    <t>The DALY Calculator---A GUI for stochastic DALY calculation in R</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>http://cran.r-project.org/package=DALY</t>
-  </si>
-  <si>
     <t>FERG</t>
   </si>
   <si>
@@ -146,12 +131,27 @@
   </si>
   <si>
     <t>https://github.com/brechtdv/FERG</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=DALY</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=prevalence</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=cystiSim</t>
+  </si>
+  <si>
+    <t>The DALY Calculator---Graphical User Interface for Probabilistic DALY Calculation in R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,6 +208,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -274,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +310,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -520,19 +557,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.69140625" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.23046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -552,173 +591,176 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>41939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
-        <v>42114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
-        <v>42201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2">
-        <v>42498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" s="2">
-        <v>42505</v>
+        <v>42700</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>